--- a/question.xlsx
+++ b/question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivendra Kumar\1a programming\OTPQuiz\OTP-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B57A3C-5036-4EF3-9B86-12284AB8B938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EAF8C5-1719-46C2-9CB2-AE01550B7DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="11020" windowHeight="11060" xr2:uid="{5D866412-AA7B-42D1-80C9-AA35EE00A207}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5D866412-AA7B-42D1-80C9-AA35EE00A207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Total sleep in a day</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -628,283 +631,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9840317B-DA8A-4DED-BFE6-3CDF748D9E33}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.26953125" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="48.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/question.xlsx
+++ b/question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivendra Kumar\1a programming\OTPQuiz\OTP-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EAF8C5-1719-46C2-9CB2-AE01550B7DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD12DDB-029B-4682-9200-E13349F3A848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5D866412-AA7B-42D1-80C9-AA35EE00A207}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Total sleep in a day</t>
   </si>
   <si>
-    <t>6 hrs</t>
-  </si>
-  <si>
-    <t>4.5 to 5.5 hrs</t>
-  </si>
-  <si>
-    <t>6.5-8 hrs</t>
-  </si>
-  <si>
     <t>Speech</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>Personal Goal</t>
   </si>
   <si>
-    <t>No work/Selfish</t>
-  </si>
-  <si>
     <t>Anger</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>Mostly</t>
   </si>
   <si>
-    <t>Expectation</t>
-  </si>
-  <si>
     <t>Lets focus on right and manage wrong</t>
   </si>
   <si>
@@ -126,12 +111,6 @@
     <t>After wearing one time</t>
   </si>
   <si>
-    <t>After wearing 1-3 times</t>
-  </si>
-  <si>
-    <t>After wearing &gt;3 times</t>
-  </si>
-  <si>
     <t>Food Likings</t>
   </si>
   <si>
@@ -141,9 +120,6 @@
     <t>Salty, bitter, hot, burning</t>
   </si>
   <si>
-    <t>Tasteless, Stale, Intoxicants</t>
-  </si>
-  <si>
     <t>Nature while conversing with others</t>
   </si>
   <si>
@@ -207,9 +183,6 @@
     <t>When will you prepare for exams ?</t>
   </si>
   <si>
-    <t>From 1st day</t>
-  </si>
-  <si>
     <t>A week before</t>
   </si>
   <si>
@@ -219,27 +192,12 @@
     <t>Hairstyle</t>
   </si>
   <si>
-    <t>Short</t>
-  </si>
-  <si>
     <t>Fancy</t>
   </si>
   <si>
     <t>Long</t>
   </si>
   <si>
-    <t>Beard</t>
-  </si>
-  <si>
-    <t>Clean shaved</t>
-  </si>
-  <si>
-    <t>I don't care</t>
-  </si>
-  <si>
-    <t>Long beard</t>
-  </si>
-  <si>
     <t>Goodness</t>
   </si>
   <si>
@@ -253,13 +211,115 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>6-8 hrs</t>
+  </si>
+  <si>
+    <t>less than 5 hrs</t>
+  </si>
+  <si>
+    <t>more than 8 hrs</t>
+  </si>
+  <si>
+    <t>No work</t>
+  </si>
+  <si>
+    <t>General mindset</t>
+  </si>
+  <si>
+    <t>After wearing 2-3 times</t>
+  </si>
+  <si>
+    <t>After wearing many times</t>
+  </si>
+  <si>
+    <t>Stale, Intoxicants</t>
+  </si>
+  <si>
+    <t>From beginning of semester</t>
+  </si>
+  <si>
+    <t>Short/Descent</t>
+  </si>
+  <si>
+    <t>Approach towards life</t>
+  </si>
+  <si>
+    <t>A sense of gratitude and thanksgiving for things received from destiny</t>
+  </si>
+  <si>
+    <t>Hankering for more than what I have</t>
+  </si>
+  <si>
+    <t>Lamentation for what things I do not have</t>
+  </si>
+  <si>
+    <t>Controlling one’s mind and emotions</t>
+  </si>
+  <si>
+    <t>I feel this is very important.</t>
+  </si>
+  <si>
+    <t>Maybe sometimes I should.</t>
+  </si>
+  <si>
+    <t>This is not important.</t>
+  </si>
+  <si>
+    <t>When I feel out of control -</t>
+  </si>
+  <si>
+    <t>I pray to God and do the best of my capacity</t>
+  </si>
+  <si>
+    <t>I just depend on my strength and work harder</t>
+  </si>
+  <si>
+    <t>I give up</t>
+  </si>
+  <si>
+    <t>I feel interested in searching and asking basic questions about life and also about the next life.</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Studying the Holy Scriptures</t>
+  </si>
+  <si>
+    <t>I feel very interested and wish to explore more</t>
+  </si>
+  <si>
+    <t>It is good once a while</t>
+  </si>
+  <si>
+    <t>This is not required</t>
+  </si>
+  <si>
+    <t>It is pleasing to me to pray and I feel calm after doing so.</t>
+  </si>
+  <si>
+    <t>Yes very much</t>
+  </si>
+  <si>
+    <t>To some extent</t>
+  </si>
+  <si>
+    <t>Not sure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +330,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -309,13 +375,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9840317B-DA8A-4DED-BFE6-3CDF748D9E33}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A18:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,19 +716,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -670,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -684,16 +753,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -701,16 +770,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -718,16 +787,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -735,16 +804,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -752,16 +821,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -769,16 +838,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -786,16 +855,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -803,16 +872,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -820,16 +889,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -837,16 +906,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -854,16 +923,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -871,50 +940,50 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -922,33 +991,33 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -956,16 +1025,101 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
